--- a/SeleniumBasics/src/main/resources/TestData.xlsx
+++ b/SeleniumBasics/src/main/resources/TestData.xlsx
@@ -24,34 +24,34 @@
     <t>Good</t>
   </si>
   <si>
+    <t>anikha123@gmail.com</t>
+  </si>
+  <si>
+    <t>anik123asd</t>
+  </si>
+  <si>
+    <t>Demo Web Shop. Register</t>
+  </si>
+  <si>
+    <t>Your registration completed</t>
+  </si>
+  <si>
+    <t>Roshan</t>
+  </si>
+  <si>
+    <t>Amrita</t>
+  </si>
+  <si>
+    <t>amrosh123@gmail.com</t>
+  </si>
+  <si>
+    <t>amrosh@4321</t>
+  </si>
+  <si>
+    <t>Login was unsuccessful. Please correct the errors and try again.</t>
+  </si>
+  <si>
     <t>Demo Web Shop. Login</t>
-  </si>
-  <si>
-    <t>anikha123@gmail.com</t>
-  </si>
-  <si>
-    <t>anik123asd</t>
-  </si>
-  <si>
-    <t>Demo Web Shop. Register</t>
-  </si>
-  <si>
-    <t>Your registration completed</t>
-  </si>
-  <si>
-    <t>Roshan</t>
-  </si>
-  <si>
-    <t>Amrita</t>
-  </si>
-  <si>
-    <t>amrosh123@gmail.com</t>
-  </si>
-  <si>
-    <t>amrosh@4321</t>
-  </si>
-  <si>
-    <t>Login was unsuccessful. Please correct the errors and try again.</t>
   </si>
 </sst>
 </file>
@@ -431,9 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -444,18 +442,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -485,22 +483,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
